--- a/scr/Деспоташвили_Давыткина_Щеголькова_191_351/Задание5_24-5_35_v2_Деспоташвили_Щеголькова_Давыткина.xlsx
+++ b/scr/Деспоташвили_Давыткина_Щеголькова_191_351/Задание5_24-5_35_v2_Деспоташвили_Щеголькова_Давыткина.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edae7591256483da/Рабочий стол/6 семестр/ПД/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Polytech\6\ПД\pd-2022-1\scr\Деспоташвили_Давыткина_Щеголькова_191_351\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10DDD560-7B34-4A1F-BC19-8AC5C6E40020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63517728-310C-495F-B891-06F9EDBFC7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C18E172-BA56-8841-A8DE-289CE595983B}"/>
+    <workbookView xWindow="821" yWindow="-108" windowWidth="25126" windowHeight="14750" xr2:uid="{9C18E172-BA56-8841-A8DE-289CE595983B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="108">
   <si>
     <t>ISO 27004</t>
   </si>
@@ -176,54 +176,6 @@
   <si>
     <t>27001: разлчий нет
 27002: ГОСТ обязывает устанавливать процедуры для оценки инцидентов (в ISO данные требования являются рекомендательными)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Эффективность менеджмента инцидентов ИБ:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-Определить категории инцидентов ИБ и временные рамки, в которые должны быть разрешены инциденты каждой категории. Определить по категориям, сколько инцидентов не было разрешено в установленный срок.
-Данное число должно быть в пределах определенного "зеленого" значения.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Тенденция инцидентов ИБ:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-Сравнить среднее значение количества инцидентов для последних двух периодов со средним значением за последние шесть периодов. Определить пороговые значения данных показателей.
-Провести данную оценку для всех инцидентов и для всех категорий инцидентов.
-Пороговое значение должно быть на зеленом уровне.</t>
-    </r>
   </si>
   <si>
     <t>Отличия ISO и МЭК</t>
@@ -376,9 +328,6 @@
     <t>Записи должны быть защищены от потери, повреждения, фальсификации, несанкционированного доступа и несанкционированной публикации в соответствии с законодательными, нормативными, контрактными требованиями и требованиями бизнеса.</t>
   </si>
   <si>
-    <t>Записи должны быть защищены от потери, уничтожения, фальсификации, несанкционированного доступа и разглашения, в соответствии с правовы­ ми, регулятивными, договорными и бизнес-требованиями</t>
-  </si>
-  <si>
     <t>Организация должна предпринять следующие шаги для защиты аутентичности, надежности, целостности и
 удобство использования записей, поскольку их бизнес-контекст и требования к их управлению меняются с течением времени
 время:
@@ -437,9 +386,6 @@
     <t>Конфиденциальность и защита персональных данных должны быть обеспечены в той мере, в какой это требуется соответствующим законодательством и нормативными актами, где это применимо.</t>
   </si>
   <si>
-    <t>Конфиденциальность и защита персональных данных должна обеспечи­ ваться в соответствии с требованиями соответствующего законодатель­ ства и правилами там, где это применимо</t>
-  </si>
-  <si>
     <t>Организация должна установить и сообщить о политике конфиденциальности и защите конфиденциальной информации по конкретным темам.
 PII для всех соответствующих заинтересованных сторон.
 Организация должна разработать и внедрить процедуры для сохранения конфиденциальности и
@@ -474,9 +420,6 @@
   </si>
   <si>
     <t>Подход организации к управлению информационной безопасностью и его реализация (т. е. задачи управления, средства управления, политики, процессы и процедуры по обеспечению информационной безопасности) должны подвергаться независимому анализу через запланированные интервалы времени или в тех случаях, когда происходят существенные изменения.</t>
-  </si>
-  <si>
-    <t>Подход организации к менеджменту информационной безопасностью и ее реализация (т. е. цели, меры и средства, политики, процессы и про­ цедуры информационной безопасности) следует проверять независимо друг от друга через запланированные интервалы времени или в случае значительных изменений</t>
   </si>
   <si>
     <t>В организации должны быть процессы для проведения независимых обзоров.
@@ -559,10 +502,6 @@
 Руководство должно определить все законодательные акты, требования которых применимы к бизнесу организации и должны выполняться. Если организация ведет бизнес в нескольких странах, руководство должно учитывать требования каждой страны.</t>
   </si>
   <si>
-    <t>27001: различий нет
-27002: ISO обобщает несколько пунков ГОСТа(18.1 и 15)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Из пункта10.1
 Реакция на инциденты ИБ должна основываться на определенном процессе обработки. Процесс должен включать в себя:
 - выявление масштабов и последствий несоответствий;
@@ -572,9 +511,6 @@
 - мониторинга ситуации, чтобы убедиться, что исправления имени ожидаемый эффект и не привели к непреднамеренныйм побочным эффектам;
 - и т.д.
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не найдено, я полагаю, потому что четких руководств для сбора свидетельств нет, каждая организация их разрабатывает самостоятельно, обратимня к ГОСТ 27002, там описано, что должны включать в себя процедуры сбора свидетельств: "В общем случае эти процедуры должны обеспечивать процессы идентификации, сбора, получения и сохранения свидетельств в зависимости от типа носителей, устройств и состояния устройств, например включенных или выключенных.". Сбор свидетельств в каждом случае будет уникален. </t>
   </si>
   <si>
     <t>Реакция на несоответствие должна основываться на определенном процессе обработки. Этот процесс должен
@@ -639,6 +575,182 @@
   </si>
   <si>
     <t>Хотя данный контроль только добавлен мы можем найти в ГОСТ некоторую информацию подходящую к нему, однако в ISO все описано более доступно и понятно.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Эффективность менеджмента инцидентов ИБ:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Определить категории инцидентов ИБ и временные рамки, в которые должны быть разрешены инциденты каждой категории. Определить по категориям, сколько инцидентов не было разрешено в установленный срок.
+Данное число должно быть в пределах определенного "зеленого" значения.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Тенденция инцидентов ИБ:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Сравнить среднее значение количества инцидентов для последних двух периодов со средним значением за последние шесть периодов. Определить пороговые значения данных показателей.
+Провести данную оценку для всех инцидентов и для всех категорий инцидентов.
+Пороговое значение должно быть на зеленом уровне.</t>
+    </r>
+  </si>
+  <si>
+    <t>27001: различий нет
+27002: ISO включает те же требования, что и ГОСТ + ISO обязывает проводить постинцидентный анализ для выявления первопричины инцидента, а также осуществлять управление уязвимостями и недостатками ИБ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не найдено, я полагаю, потому что четких руководств для сбора свидетельств нет, каждая организация их разрабатывает самостоятельно, обратимcя к ГОСТ 27002, там описано, что должны включать в себя процедуры сбора свидетельств: "В общем случае эти процедуры должны обеспечивать процессы идентификации, сбора, получения и сохранения свидетельств в зависимости от типа носителей, устройств и состояния устройств, например включенных или выключенных.". Сбор свидетельств в каждом случае будет уникален. </t>
+  </si>
+  <si>
+    <t>Информация отсутствует</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мера оценки отсутствует </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стандарты похожи, однако в ГОСТ 27002 гораздо больше информации в виде подпунктов, относящихся к защите материалов по интеллектуальной собственности. </t>
+  </si>
+  <si>
+    <t>Записи должны быть защищены от потери, уничтожения, фальсификации, несанкционированного доступа и разглашения, в соответствии с правовыми, регулятивными, договорными и бизнес-требованиями</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Информации не найдено. Полагаю, что записи должны создаваться, сохраняться и контролироваться как свидетельство того, что СМИБ
+организации соответствует стандартам и что операции эффективны.
+</t>
+  </si>
+  <si>
+    <t>Мера оценки отсутствует</t>
+  </si>
+  <si>
+    <t>Стандарты похожи, однако в ГОСТ 27002 более детально описаны шаги для защиты аутентичности, надежности, целостности и
+удобство использования записей.</t>
+  </si>
+  <si>
+    <t>Конфиденциальность и защита персональных данных должна обеспечиваться в соответствии с требованиями соответствующего законодательства и правилами там, где это применимо</t>
+  </si>
+  <si>
+    <t>Документированная информация может храниться в любой форме, т.е. традиционные документы (как бумажные, так и
+электронной форме), веб-страницы, базы данных, компьютерные журналы, компьютерные отчеты, аудио и видео.
+Кроме того, документированная информация может состоять из спецификаций намерений (например,
+политика) или отчеты об исполнении (например, результаты аудита) или сочетание того и другого. Следующее
+Руководство применяется непосредственно к традиционным документам и должно интерпретироваться соответствующим образом, когда
+применяется к другим формам документированной информации.
+Организации должны создать структурированную библиотеку документированной информации, связывающую различные части
+документально подтвержденная информация:
+а)
+определение структуры документированной информационной базы;
+б)
+определение типовой структуры документированной информации;
+в)
+предоставление шаблонов для различных типов документированной информации;
+г)
+определение ответственности за подготовку, утверждение, публикацию и управление
+документированная информация; а также
+д)
+определение и документирование процесса пересмотра и утверждения для обеспечения постоянной пригодности
+и адекватность.
+Организации должны определить подход к документации, включающий общие атрибуты каждого
+документ, который обеспечивает четкую и уникальную идентификацию. Эти атрибуты обычно включают документ
+тип (например, политика, директива, правило, руководство, план, форма, процесс или процедура), цель и объем,
+название, дата публикации, классификация, номер ссылки, номер версии и история изменений.
+идентификация автора и лица (лиц), в настоящее время ответственного за документ, его приложение
+и эволюция, а также утверждающий(е) или уполномоченный(ые) орган(ы) должны быть включены.
+Требования к формату могут включать определение подходящих языков документации, форматов файлов,
+версия для работы с ними и графическим контентом. Требования к носителям определяют, на каком физическом
+и электронные средства информации должны быть доступны.
+Заявления и стиль написания должны быть адаптированы к аудитории и объему документации.</t>
+  </si>
+  <si>
+    <t>Прежде чем публиковать информацию в отчетах, информационных панелях и т. д., организация должна определить, как
+собранные данные и результаты могут быть переданы, и с кем, как некоторые данные, связанные с информационной безопасностью
+может быть чувствительным с точки зрения конфиденциальности.
+Кроме того, полезно иметь процесс проверки и оценки процесса сбора для подтверждения
+что собираются правильные показатели и таким образом, чтобы они были воспроизводимыми, точными и
+последовательный.</t>
+  </si>
+  <si>
+    <t>Прежде чем публиковать информацию в отчетах, информационных панелях и т. д.. организация должна определить, каким образом и с кем она может делиться собранными данными и результатами, поскольку некоторые данные, связанные с ИБ. могут не подлежать разглашению по причине конфиденциальности.
+Кроме того, для подтверждения того, что значения показателей собираются правильно, таким образом, чтобы они были повторяемыми, точными и непротиворечивыми, полезно иметь процесс проверки и оценки процесса сбора данных.</t>
+  </si>
+  <si>
+    <t>Отличие можно увидеть между ISO 27002 и ГОСТ Р ИСО/МЭК 27002-2021. В ГОСТ говорится конкретно о внедрении политики организации.</t>
+  </si>
+  <si>
+    <t>Подход организации к менеджменту информационной безопасностью и ее реализация (т. е. цели, меры и средства, политики, процессы и процедуры информационной безопасности) следует проверять независимо друг от друга через запланированные интервалы времени или в случае значительных изменений</t>
+  </si>
+  <si>
+    <t>Постоянное совершенствование СМИБ должно предусматривать оценку самой СМИБ и всех ее элементов.
+рассмотрение внутренних и внешних вопросов (4.1), требований заинтересованных сторон (4.2) и результатов
+оценки эффективности (статья 9). Оценка должна включать анализ:
+а)
+пригодность СМИБ с учетом внешних и внутренних проблем, требований
+заинтересованные стороны, установленные цели информационной безопасности и идентифицированная информационная безопасность
+риски должным образом устраняются посредством планирования и внедрения СМИБ и информирования
+контроль безопасности;
+б)
+Адекватность СМИБ с учетом того, соответствуют ли процессы СМИБ и средствам управления информационной безопасностью.
+совместимость с общими целями, деятельностью и процессами организации; а также
+в)
+эффективность СМИБ с учетом того, достигнуты ли намеченные результаты СМИБ,
+удовлетворены требования заинтересованных сторон, управление рисками информационной безопасности
+цели информационной безопасности, несоответствия управляются, в то время как ресурсы, необходимые для
+создание, внедрение, обслуживание и постоянное совершенствование СМИБ
+соизмеримы с этими результатами.</t>
+  </si>
+  <si>
+    <t>Показатели эффективности могут использоваться для демонстрации прогресса во внедрении процессов СМИБ, связанных с
+процедуры и специальные меры безопасности. Принимая во внимание, что эффективность касается степени, в которой запланировано
+мероприятия были реализованы и намеченные результаты достигнуты, показатели эффективности должны касаться
+степень, в которой реализованы процессы и средства контроля информационной безопасности. Эти меры
+помочь определить, были ли реализованы процессы СМИБ и средства управления информационной безопасностью
+как указано.
+Для показателей эффективности используются данные, которые можно получить из протоколов, записей о посещаемости, планов проектов,
+автоматизированные инструменты сканирования и другие широко используемые средства документирования, записи и мониторинга
+деятельность СМИБ.</t>
+  </si>
+  <si>
+    <t>Для оценки деятельности по обеспечению ИБ используются данные, которые можно получить из
+протоколов, журналов регистрации, планов проектов, инструментов автоматического сканирования и
+других широко используемых средств документирования, записи и мониторинга действий СМИБ.
+Сбор, анализ и представление отчетов о показателях должны быть по возможности автоматизиро­
+ваны. чтобы снизить их стоимость, трудозатраты, а также вероятность человеческой ошибки.</t>
+  </si>
+  <si>
+    <t>Можно отметить, что в ГОСТ Р ИСО/МЭК 27002-2021 находится сокращенная информация по пунктам из ISO.</t>
   </si>
 </sst>
 </file>
@@ -756,7 +868,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -816,11 +928,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -840,53 +989,50 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -894,13 +1040,25 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1219,24 +1377,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C604FE33-ED0B-0B45-9197-C1FB2F8EC3BC}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="68" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="18.850000000000001"/>
   <cols>
-    <col min="1" max="1" width="36.5" style="12" customWidth="1"/>
-    <col min="2" max="3" width="54.25" style="3" customWidth="1"/>
-    <col min="4" max="5" width="56.125" style="3" customWidth="1"/>
-    <col min="6" max="9" width="54.25" style="3" customWidth="1"/>
-    <col min="10" max="10" width="54.25" style="9" customWidth="1"/>
-    <col min="11" max="11" width="13.375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.125" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="10.75" style="3"/>
+    <col min="1" max="1" width="36.44140625" style="10" customWidth="1"/>
+    <col min="2" max="3" width="54.21875" style="3" customWidth="1"/>
+    <col min="4" max="5" width="56.109375" style="3" customWidth="1"/>
+    <col min="6" max="9" width="54.21875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="54.21875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="10.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25">
+    <row r="1" spans="1:11" ht="22.9">
       <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
@@ -1246,10 +1404,10 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1264,8 +1422,8 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>36</v>
+      <c r="J1" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="26.1" customHeight="1">
@@ -1286,10 +1444,10 @@
         <v>5</v>
       </c>
       <c r="I2" s="18"/>
-      <c r="J2" s="8"/>
+      <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:11" ht="266.45" customHeight="1">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:11" ht="266.5" customHeight="1">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1304,24 +1462,24 @@
       <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" ht="116.65" customHeight="1">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:11" ht="116.6" customHeight="1">
+      <c r="A4" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1336,16 +1494,20 @@
       <c r="E4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="7" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="203.85" customHeight="1">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:11" ht="203.9" customHeight="1">
+      <c r="A5" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1360,16 +1522,16 @@
       <c r="E5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="7" t="s">
-        <v>78</v>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="13" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="116.65" customHeight="1">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:11" ht="116.6" customHeight="1">
+      <c r="A6" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1378,238 +1540,267 @@
       <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="7" t="s">
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="269.25" customHeight="1">
-      <c r="A7" s="10" t="s">
-        <v>44</v>
+    <row r="7" spans="1:11" ht="269.35000000000002" customHeight="1">
+      <c r="A7" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="15" t="s">
-        <v>89</v>
+        <v>46</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="13" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="409.5" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>40</v>
+      <c r="A8" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="G8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8" s="25"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" ht="409.5" customHeight="1">
-      <c r="A9" s="11" t="s">
-        <v>41</v>
+      <c r="A9" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="15" t="s">
-        <v>92</v>
+        <v>45</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="409.6" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>42</v>
+      <c r="A10" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="G10" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="15" t="s">
-        <v>91</v>
+        <v>76</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="409.6" customHeight="1">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="E11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15" t="s">
-        <v>33</v>
+      <c r="F11" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="30"/>
+      <c r="J11" s="13" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="409.6" customHeight="1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="E12" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15" t="s">
-        <v>33</v>
+      <c r="F12" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="13" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="409.5" customHeight="1">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="E13" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15" t="s">
-        <v>33</v>
+      <c r="F13" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="409.5" customHeight="1">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15" t="s">
-        <v>33</v>
+      <c r="F14" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="B15" s="14"/>
+      <c r="B15" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="19">
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B2:C2"/>
@@ -1618,13 +1809,12 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="F3:F6"/>
     <mergeCell ref="G3:G6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="I3:I6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H4:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
